--- a/MOUD_scraping/Historical_MOUD.xlsx
+++ b/MOUD_scraping/Historical_MOUD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinyun/Documents/opioid-policy-scan/MOUD_scraping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olina/opioid-policy-scan/MOUD_scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF907A75-4D92-D449-B024-C5805F6DDB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7726D6-B331-0044-98A5-5954F7BC04D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="460" windowWidth="26980" windowHeight="15200" xr2:uid="{104F96D4-3FA6-B849-BFF7-404D918CD008}"/>
   </bookViews>
@@ -1496,18 +1496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B265740-D820-584F-843E-C9808BE4BCD4}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1980</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1984</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -1536,8 +1537,11 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -1558,8 +1562,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1569,8 +1576,11 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -1580,8 +1590,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -1599,8 +1612,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -1618,8 +1634,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -1637,8 +1656,11 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1664,8 +1686,11 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -1691,8 +1716,11 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1708,7 +1736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -1718,8 +1746,11 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -1735,7 +1766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -1745,8 +1776,11 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1772,8 +1806,11 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +1818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -1799,8 +1836,11 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -1824,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -1832,7 +1872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -1840,7 +1880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -1850,8 +1890,11 @@
       <c r="C37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1859,7 +1902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1875,7 +1918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +1926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -1891,7 +1934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +1966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>47</v>
       </c>
